--- a/SolutionTracker.xlsx
+++ b/SolutionTracker.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t xml:space="preserve">Problem</t>
   </si>
@@ -64,6 +64,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -123,8 +124,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -251,79 +256,99 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.84"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>387</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="0" t="n">
+      <c r="D2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>387</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="0" t="n">
+      <c r="D3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>771</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="0" t="n">
         <v>0</v>
       </c>
     </row>

--- a/SolutionTracker.xlsx
+++ b/SolutionTracker.xlsx
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+  <si>
+    <t xml:space="preserve">Date</t>
+  </si>
   <si>
     <t xml:space="preserve">Problem</t>
   </si>
@@ -31,9 +34,6 @@
     <t xml:space="preserve">Category</t>
   </si>
   <si>
-    <t xml:space="preserve">Attempts</t>
-  </si>
-  <si>
     <t xml:space="preserve">Saw idea?</t>
   </si>
   <si>
@@ -50,14 +50,21 @@
   </si>
   <si>
     <t xml:space="preserve">String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sorting</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -124,12 +131,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -256,21 +271,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.55"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -293,17 +309,17 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="B2" s="1" t="n">
         <v>387</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>1</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>0</v>
@@ -313,17 +329,17 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="B3" s="1" t="n">
         <v>387</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>1</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>1</v>
@@ -333,23 +349,43 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="2" t="n">
+        <v>45370</v>
+      </c>
+      <c r="B4" s="1" t="n">
         <v>771</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="E4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
+        <v>45370</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>452</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>0</v>
+      <c r="F5" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
